--- a/Assets/Res/Arts/ExcelConfig/FaceBookConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/FaceBookConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>区域ID</t>
   </si>
@@ -80,30 +80,6 @@
   </si>
   <si>
     <t>赵国野外</t>
-  </si>
-  <si>
-    <t>尸谷</t>
-  </si>
-  <si>
-    <t>444,232,32,32</t>
-  </si>
-  <si>
-    <t>枯海之涸</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>修魔海小径</t>
-  </si>
-  <si>
-    <t>魔林</t>
-  </si>
-  <si>
-    <t>碎星平原</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
 </sst>
 </file>
@@ -111,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -139,7 +115,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,21 +144,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,36 +174,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -235,18 +203,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,17 +229,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -303,37 +279,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,145 +435,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,9 +499,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,41 +519,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +552,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -617,10 +593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,133 +605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1085,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1266,104 +1242,56 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1010</v>
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1009</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1010</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1010</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1010</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1010</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/Assets/Res/Arts/ExcelConfig/FaceBookConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/FaceBookConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>区域ID</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>恒岳派后山</t>
+  </si>
+  <si>
+    <t>553,332</t>
   </si>
   <si>
     <t>蛮荒丛林</t>
@@ -88,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -115,14 +118,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,62 +171,55 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,32 +239,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,55 +282,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,13 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,109 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,34 +494,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,16 +540,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,24 +588,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -593,10 +596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,137 +608,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,9 +761,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,12 +1085,12 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="5" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1109,7 +1109,7 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
@@ -1137,7 +1137,7 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1197,8 +1197,8 @@
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
-        <v>553332</v>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1209,7 +1209,7 @@
         <v>1009</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1217,7 +1217,7 @@
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
         <v>1009</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -1237,7 +1237,7 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
         <v>1009</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -1257,7 +1257,7 @@
       <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3"/>
@@ -1275,7 +1275,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3"/>
@@ -1283,7 +1283,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -1291,7 +1291,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/Assets/Res/Arts/ExcelConfig/FaceBookConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/FaceBookConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="14850"/>
+    <workbookView windowWidth="15135" windowHeight="6045"/>
   </bookViews>
   <sheets>
     <sheet name="FaceBookConfig" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -132,8 +132,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,7 +186,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,9 +221,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,37 +231,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,31 +245,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,19 +282,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +414,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,151 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,6 +509,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -520,21 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,26 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -588,6 +568,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -596,145 +596,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
